--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Initiate project</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Docking</t>
+  </si>
+  <si>
+    <t>Dockspace Menu</t>
+  </si>
+  <si>
+    <t>ShaderProgram</t>
+  </si>
+  <si>
+    <t>ImGui Rendering</t>
   </si>
 </sst>
 </file>
@@ -411,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,12 +542,12 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -546,7 +555,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -554,7 +563,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -562,7 +571,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -570,7 +579,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -578,9 +587,33 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Initiate project</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>ImGui Rendering</t>
+  </si>
+  <si>
+    <t>Maths</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -547,15 +550,15 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -563,7 +566,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -571,7 +574,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -579,7 +582,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -587,15 +590,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -603,17 +606,25 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>Initiate project</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>Pause</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Transforms</t>
+  </si>
+  <si>
+    <t>Translate</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Rotate</t>
   </si>
 </sst>
 </file>
@@ -153,10 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,257 +456,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="1" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A31:A33"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>$E$1:$E$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>$F$1:$F$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Initiate project</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Rotate</t>
+  </si>
+  <si>
+    <t>Scene</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,6 +736,11 @@
       <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>Initiate project</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>Scene</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Quad</t>
+  </si>
+  <si>
+    <t>Polygon</t>
   </si>
 </sst>
 </file>
@@ -459,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,9 +755,30 @@
         <v>36</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A35:A37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>Initiate project</t>
   </si>
@@ -147,6 +147,24 @@
   </si>
   <si>
     <t>Polygon</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Fov</t>
+  </si>
+  <si>
+    <t>Perspective</t>
+  </si>
+  <si>
+    <t>Orthographic</t>
   </si>
 </sst>
 </file>
@@ -471,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,99 +704,136 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A35:A37"/>
+  <mergeCells count="3">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A25:A30"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>Initiate project</t>
   </si>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,18 +734,27 @@
       <c r="B28" t="s">
         <v>44</v>
       </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>45</v>
       </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -790,12 +799,18 @@
       </c>
       <c r="B36" t="s">
         <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
         <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>Initiate project</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>Orthographic</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>SpriteSheet</t>
+  </si>
+  <si>
+    <t>FrameBuffer</t>
   </si>
 </sst>
 </file>
@@ -489,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,31 +629,28 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -649,15 +658,15 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -665,7 +674,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -673,7 +682,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -681,7 +690,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -689,7 +698,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -697,27 +706,26 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" t="s">
-        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -726,39 +734,40 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1" t="s">
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -766,23 +775,23 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -790,24 +799,23 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" t="s">
-        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -816,39 +824,68 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A25:A30"/>
+  <mergeCells count="4">
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>Initiate project</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Scene</t>
   </si>
   <si>
-    <t>Object</t>
-  </si>
-  <si>
     <t>Triangle</t>
   </si>
   <si>
@@ -177,6 +174,21 @@
   </si>
   <si>
     <t>FrameBuffer</t>
+  </si>
+  <si>
+    <t>Object2D</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Object3D</t>
+  </si>
+  <si>
+    <t>Cube</t>
+  </si>
+  <si>
+    <t>Sphere</t>
   </si>
 </sst>
 </file>
@@ -501,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +641,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -725,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -734,7 +746,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -743,13 +755,13 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -758,7 +770,7 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -767,7 +779,7 @@
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -843,48 +855,78 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="B41" t="s">
-        <v>38</v>
+      <c r="C41" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>47</v>
+      <c r="A44" s="2"/>
+      <c r="B44" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A41:A43"/>
     <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A41:A44"/>
     <mergeCell ref="A45:A46"/>
   </mergeCells>
   <dataValidations count="1">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>Initiate project</t>
   </si>
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -643,13 +643,16 @@
       <c r="A14" t="s">
         <v>49</v>
       </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -665,7 +668,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -673,7 +676,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -729,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -757,6 +760,9 @@
       <c r="B28" t="s">
         <v>42</v>
       </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -798,7 +804,7 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,6 +853,9 @@
       <c r="B39" t="s">
         <v>35</v>
       </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -878,11 +887,17 @@
       <c r="B43" t="s">
         <v>39</v>
       </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
         <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Initiate project</t>
   </si>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,6 +860,9 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>Initiate project</t>
   </si>
@@ -167,12 +167,6 @@
     <t>Animation</t>
   </si>
   <si>
-    <t>Sprite</t>
-  </si>
-  <si>
-    <t>SpriteSheet</t>
-  </si>
-  <si>
     <t>FrameBuffer</t>
   </si>
   <si>
@@ -189,6 +183,9 @@
   </si>
   <si>
     <t>Sphere</t>
+  </si>
+  <si>
+    <t>Tilemap</t>
   </si>
 </sst>
 </file>
@@ -225,13 +222,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +516,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -897,7 +897,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -917,7 +917,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,24 +926,20 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
+      <c r="A48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A45:A46"/>
   </mergeCells>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>Initiate project</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Tilemap</t>
+  </si>
+  <si>
+    <t>Cone</t>
+  </si>
+  <si>
+    <t>Cylindre</t>
   </si>
 </sst>
 </file>
@@ -513,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,27 +927,39 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A45:A48"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>Initiate project</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>Cylindre</t>
+  </si>
+  <si>
+    <t>Serializer</t>
+  </si>
+  <si>
+    <t>Serialization</t>
+  </si>
+  <si>
+    <t>Scene Serializer</t>
   </si>
 </sst>
 </file>
@@ -234,10 +243,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +751,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
@@ -753,7 +762,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>41</v>
       </c>
@@ -762,7 +771,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>42</v>
       </c>
@@ -771,7 +780,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>43</v>
       </c>
@@ -780,7 +789,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>44</v>
       </c>
@@ -789,7 +798,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1" t="s">
         <v>45</v>
       </c>
@@ -835,7 +844,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B37" t="s">
@@ -846,7 +855,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>34</v>
       </c>
@@ -855,7 +864,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -872,7 +881,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B41" t="s">
@@ -883,7 +892,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" t="s">
         <v>38</v>
       </c>
@@ -892,7 +901,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>39</v>
       </c>
@@ -901,7 +910,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" t="s">
         <v>49</v>
       </c>
@@ -910,7 +919,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B45" t="s">
@@ -921,19 +930,19 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" t="s">
         <v>55</v>
       </c>
@@ -947,19 +956,34 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A51:A52"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>Initiate project</t>
   </si>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,9 +665,6 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>Initiate project</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Scene Serializer</t>
+  </si>
+  <si>
+    <t>Component System</t>
+  </si>
+  <si>
+    <t>Transform</t>
   </si>
 </sst>
 </file>
@@ -528,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,8 +980,23 @@
         <v>58</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A41:A44"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\C++\Tomato\Tomato\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Tomato\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070858BE-A9A2-49F3-A25C-414B5AA82B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>Initiate project</t>
   </si>
@@ -44,12 +45,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Not Yet</t>
-  </si>
-  <si>
     <t>Window</t>
   </si>
   <si>
@@ -170,15 +165,9 @@
     <t>FrameBuffer</t>
   </si>
   <si>
-    <t>Object2D</t>
-  </si>
-  <si>
     <t>Circle</t>
   </si>
   <si>
-    <t>Object3D</t>
-  </si>
-  <si>
     <t>Cube</t>
   </si>
   <si>
@@ -207,12 +196,30 @@
   </si>
   <si>
     <t>Transform</t>
+  </si>
+  <si>
+    <t>Draw 2D</t>
+  </si>
+  <si>
+    <t>Unfinished</t>
+  </si>
+  <si>
+    <t>Draw 3D</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>MouseToWorldCoords</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,17 +540,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -566,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -576,9 +584,6 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -598,7 +603,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -606,7 +611,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -614,7 +619,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -622,7 +627,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -630,7 +635,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -638,7 +643,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -646,7 +651,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -654,7 +659,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -662,7 +667,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -670,12 +675,12 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -683,7 +688,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -691,7 +696,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -699,7 +704,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -707,7 +712,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -715,7 +720,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -723,7 +728,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -731,7 +736,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -739,7 +744,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -747,7 +752,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -755,10 +760,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -767,7 +772,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -776,7 +781,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -785,7 +790,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -794,7 +799,7 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -803,7 +808,7 @@
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -811,7 +816,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -819,7 +824,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -827,7 +832,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -835,7 +840,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -843,15 +848,15 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -860,7 +865,7 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -869,7 +874,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -877,7 +882,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -885,10 +890,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -897,7 +902,7 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -906,7 +911,7 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -915,60 +920,54 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -977,35 +976,76 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A57"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>$F$1:$F$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$F$1:$F$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Tomato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070858BE-A9A2-49F3-A25C-414B5AA82B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA445ACA-D641-4525-89ED-AD3B968741B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>Initiate project</t>
   </si>
@@ -207,13 +207,10 @@
     <t>Draw 3D</t>
   </si>
   <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>Float</t>
-  </si>
-  <si>
     <t>MouseToWorldCoords</t>
+  </si>
+  <si>
+    <t>MeshRenderer</t>
   </si>
 </sst>
 </file>
@@ -541,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,33 +1002,15 @@
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" t="s">
+      <c r="A56" t="s">
         <v>60</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1020,7 @@
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A53:A55"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Tomato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA445ACA-D641-4525-89ED-AD3B968741B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6EC669-573F-4AF3-9925-3241BAC8B3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>Initiate project</t>
   </si>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,6 +847,9 @@
       <c r="A36" t="s">
         <v>29</v>
       </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -1015,12 +1018,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A53:A55"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A55"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Tomato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6EC669-573F-4AF3-9925-3241BAC8B3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0AA842-1A2E-4C42-A97B-BF8AFD837C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
   <si>
     <t>Initiate project</t>
   </si>
@@ -211,6 +211,33 @@
   </si>
   <si>
     <t>MeshRenderer</t>
+  </si>
+  <si>
+    <t>DirectX Implementation</t>
+  </si>
+  <si>
+    <t>OpenGL Implementation</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>VertexBuffer</t>
+  </si>
+  <si>
+    <t>IndexBuffer</t>
+  </si>
+  <si>
+    <t>Shader</t>
+  </si>
+  <si>
+    <t>VertexArray</t>
+  </si>
+  <si>
+    <t>Renderer3D</t>
+  </si>
+  <si>
+    <t>Device</t>
   </si>
 </sst>
 </file>
@@ -538,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,6 +701,9 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1016,8 +1046,152 @@
         <v>60</v>
       </c>
     </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A65:A72"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A26:A31"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Tomato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0AA842-1A2E-4C42-A97B-BF8AFD837C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7505051-B2E5-4849-932C-499E1A5C8A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
   <si>
     <t>Initiate project</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>Device</t>
+  </si>
+  <si>
+    <t>Ray tracing</t>
+  </si>
+  <si>
+    <t>Lighting</t>
   </si>
 </sst>
 </file>
@@ -565,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,6 +1178,9 @@
       <c r="B70" t="s">
         <v>66</v>
       </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -1186,6 +1195,17 @@
       <c r="A72" s="3"/>
       <c r="B72" t="s">
         <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
